--- a/database/industries/khodro/khetrak/product/monthly.xlsx
+++ b/database/industries/khodro/khetrak/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khetrak\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB0AA4F-4CA2-4C28-B707-2F1572135342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -184,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>قطعات ریخته چدنی</t>
@@ -243,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,7 +431,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -442,7 +443,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -489,6 +490,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -524,6 +542,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -675,7 +710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1356,154 +1391,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>3565</v>
+        <v>4508</v>
       </c>
       <c r="F11" s="11">
-        <v>3338</v>
+        <v>4018</v>
       </c>
       <c r="G11" s="11">
-        <v>4508</v>
+        <v>3417</v>
       </c>
       <c r="H11" s="11">
+        <v>2060</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3467</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3988</v>
+      </c>
+      <c r="K11" s="11">
+        <v>4709</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2975</v>
+      </c>
+      <c r="M11" s="11">
+        <v>3660</v>
+      </c>
+      <c r="N11" s="11">
         <v>4018</v>
       </c>
-      <c r="I11" s="11">
-        <v>3417</v>
-      </c>
-      <c r="J11" s="11">
-        <v>2060</v>
-      </c>
-      <c r="K11" s="11">
-        <v>3467</v>
-      </c>
-      <c r="L11" s="11">
-        <v>3988</v>
-      </c>
-      <c r="M11" s="11">
-        <v>4709</v>
-      </c>
-      <c r="N11" s="11">
-        <v>2975</v>
-      </c>
       <c r="O11" s="11">
-        <v>3660</v>
+        <v>3207</v>
       </c>
       <c r="P11" s="11">
-        <v>4018</v>
+        <v>3587</v>
       </c>
       <c r="Q11" s="11">
-        <v>3207</v>
+        <v>4029</v>
       </c>
       <c r="R11" s="11">
-        <v>3587</v>
+        <v>3835</v>
       </c>
       <c r="S11" s="11">
-        <v>4029</v>
+        <v>2949</v>
       </c>
       <c r="T11" s="11">
-        <v>3835</v>
+        <v>1541</v>
       </c>
       <c r="U11" s="11">
-        <v>2949</v>
+        <v>3615</v>
       </c>
       <c r="V11" s="11">
-        <v>1541</v>
+        <v>4115</v>
       </c>
       <c r="W11" s="11">
-        <v>3615</v>
+        <v>4138</v>
       </c>
       <c r="X11" s="11">
-        <v>4115</v>
+        <v>3270</v>
       </c>
       <c r="Y11" s="11">
-        <v>4138</v>
+        <v>3861</v>
       </c>
       <c r="Z11" s="11">
-        <v>3270</v>
+        <v>4122</v>
       </c>
       <c r="AA11" s="11">
-        <v>3861</v>
+        <v>4162</v>
       </c>
       <c r="AB11" s="11">
-        <v>4122</v>
+        <v>4405</v>
       </c>
       <c r="AC11" s="11">
-        <v>4162</v>
+        <v>4439</v>
       </c>
       <c r="AD11" s="11">
-        <v>4405</v>
+        <v>4849</v>
       </c>
       <c r="AE11" s="11">
-        <v>4439</v>
+        <v>4100</v>
       </c>
       <c r="AF11" s="11">
-        <v>4849</v>
+        <v>3476</v>
       </c>
       <c r="AG11" s="11">
+        <v>3799</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>4151</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>4642</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>3237</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>5127</v>
+      </c>
+      <c r="AL11" s="11">
         <v>4100</v>
       </c>
-      <c r="AH11" s="11">
-        <v>3476</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>3799</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>4151</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>4642</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>3237</v>
-      </c>
       <c r="AM11" s="11">
-        <v>5127</v>
+        <v>4721</v>
       </c>
       <c r="AN11" s="11">
-        <v>4100</v>
+        <v>4727</v>
       </c>
       <c r="AO11" s="11">
-        <v>4721</v>
+        <v>4274</v>
       </c>
       <c r="AP11" s="11">
-        <v>4727</v>
+        <v>4624</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4274</v>
+        <v>4371</v>
       </c>
       <c r="AR11" s="11">
-        <v>4624</v>
+        <v>3560</v>
       </c>
       <c r="AS11" s="11">
-        <v>4371</v>
+        <v>4660</v>
       </c>
       <c r="AT11" s="11">
-        <v>3560</v>
+        <v>5251</v>
       </c>
       <c r="AU11" s="11">
-        <v>4660</v>
+        <v>5249</v>
       </c>
       <c r="AV11" s="11">
-        <v>5251</v>
+        <v>4070</v>
       </c>
       <c r="AW11" s="11">
-        <v>5249</v>
+        <v>5540</v>
       </c>
       <c r="AX11" s="11">
-        <v>4070</v>
+        <v>4812</v>
       </c>
       <c r="AY11" s="11">
-        <v>5540</v>
+        <v>6009</v>
       </c>
       <c r="AZ11" s="11">
-        <v>4812</v>
+        <v>5793</v>
       </c>
       <c r="BA11" s="11">
-        <v>6009</v>
+        <v>5121</v>
       </c>
       <c r="BB11" s="11">
-        <v>5784</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1623,11 +1658,11 @@
       <c r="V13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="W13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>59</v>
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
+      <c r="X13" s="15">
+        <v>0</v>
       </c>
       <c r="Y13" s="15">
         <v>0</v>
@@ -1727,154 +1762,154 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17">
-        <v>3565</v>
+        <v>4508</v>
       </c>
       <c r="F14" s="17">
-        <v>3338</v>
+        <v>4018</v>
       </c>
       <c r="G14" s="17">
-        <v>4508</v>
+        <v>3417</v>
       </c>
       <c r="H14" s="17">
+        <v>2060</v>
+      </c>
+      <c r="I14" s="17">
+        <v>3467</v>
+      </c>
+      <c r="J14" s="17">
+        <v>3988</v>
+      </c>
+      <c r="K14" s="17">
+        <v>4709</v>
+      </c>
+      <c r="L14" s="17">
+        <v>2975</v>
+      </c>
+      <c r="M14" s="17">
+        <v>3660</v>
+      </c>
+      <c r="N14" s="17">
         <v>4018</v>
       </c>
-      <c r="I14" s="17">
-        <v>3417</v>
-      </c>
-      <c r="J14" s="17">
-        <v>2060</v>
-      </c>
-      <c r="K14" s="17">
-        <v>3467</v>
-      </c>
-      <c r="L14" s="17">
-        <v>3988</v>
-      </c>
-      <c r="M14" s="17">
-        <v>4709</v>
-      </c>
-      <c r="N14" s="17">
-        <v>2975</v>
-      </c>
       <c r="O14" s="17">
-        <v>3660</v>
+        <v>3207</v>
       </c>
       <c r="P14" s="17">
-        <v>4018</v>
+        <v>3587</v>
       </c>
       <c r="Q14" s="17">
-        <v>3207</v>
+        <v>4029</v>
       </c>
       <c r="R14" s="17">
-        <v>3587</v>
+        <v>3835</v>
       </c>
       <c r="S14" s="17">
-        <v>4029</v>
+        <v>2949</v>
       </c>
       <c r="T14" s="17">
-        <v>3835</v>
+        <v>1541</v>
       </c>
       <c r="U14" s="17">
-        <v>2949</v>
+        <v>3615</v>
       </c>
       <c r="V14" s="17">
-        <v>1541</v>
+        <v>4115</v>
       </c>
       <c r="W14" s="17">
-        <v>3615</v>
+        <v>4138</v>
       </c>
       <c r="X14" s="17">
-        <v>4115</v>
+        <v>3270</v>
       </c>
       <c r="Y14" s="17">
-        <v>4138</v>
+        <v>3861</v>
       </c>
       <c r="Z14" s="17">
-        <v>3270</v>
+        <v>4122</v>
       </c>
       <c r="AA14" s="17">
-        <v>3861</v>
+        <v>4162</v>
       </c>
       <c r="AB14" s="17">
-        <v>4122</v>
+        <v>4405</v>
       </c>
       <c r="AC14" s="17">
-        <v>4162</v>
+        <v>4439</v>
       </c>
       <c r="AD14" s="17">
-        <v>4405</v>
+        <v>4849</v>
       </c>
       <c r="AE14" s="17">
-        <v>4439</v>
+        <v>4100</v>
       </c>
       <c r="AF14" s="17">
-        <v>4849</v>
+        <v>3476</v>
       </c>
       <c r="AG14" s="17">
+        <v>3799</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>4151</v>
+      </c>
+      <c r="AI14" s="17">
+        <v>4642</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>3237</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>5127</v>
+      </c>
+      <c r="AL14" s="17">
         <v>4100</v>
       </c>
-      <c r="AH14" s="17">
-        <v>3476</v>
-      </c>
-      <c r="AI14" s="17">
-        <v>3799</v>
-      </c>
-      <c r="AJ14" s="17">
-        <v>4151</v>
-      </c>
-      <c r="AK14" s="17">
-        <v>4642</v>
-      </c>
-      <c r="AL14" s="17">
-        <v>3237</v>
-      </c>
       <c r="AM14" s="17">
-        <v>5127</v>
+        <v>4721</v>
       </c>
       <c r="AN14" s="17">
-        <v>4100</v>
+        <v>4727</v>
       </c>
       <c r="AO14" s="17">
-        <v>4721</v>
+        <v>4274</v>
       </c>
       <c r="AP14" s="17">
-        <v>4727</v>
+        <v>4624</v>
       </c>
       <c r="AQ14" s="17">
-        <v>4274</v>
+        <v>4371</v>
       </c>
       <c r="AR14" s="17">
-        <v>4624</v>
+        <v>3560</v>
       </c>
       <c r="AS14" s="17">
-        <v>4371</v>
+        <v>4660</v>
       </c>
       <c r="AT14" s="17">
-        <v>3560</v>
+        <v>5251</v>
       </c>
       <c r="AU14" s="17">
-        <v>4660</v>
+        <v>5249</v>
       </c>
       <c r="AV14" s="17">
-        <v>5251</v>
+        <v>4070</v>
       </c>
       <c r="AW14" s="17">
-        <v>5249</v>
+        <v>5540</v>
       </c>
       <c r="AX14" s="17">
-        <v>4070</v>
+        <v>4812</v>
       </c>
       <c r="AY14" s="17">
-        <v>5540</v>
+        <v>6009</v>
       </c>
       <c r="AZ14" s="17">
-        <v>4812</v>
+        <v>5793</v>
       </c>
       <c r="BA14" s="17">
-        <v>6009</v>
+        <v>5121</v>
       </c>
       <c r="BB14" s="17">
-        <v>5784</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
@@ -2320,154 +2355,154 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>3645</v>
+        <v>3594</v>
       </c>
       <c r="F21" s="11">
-        <v>3637</v>
+        <v>3987</v>
       </c>
       <c r="G21" s="11">
-        <v>3594</v>
+        <v>4442</v>
       </c>
       <c r="H21" s="11">
-        <v>3987</v>
+        <v>2127</v>
       </c>
       <c r="I21" s="11">
-        <v>4442</v>
+        <v>3613</v>
       </c>
       <c r="J21" s="11">
-        <v>2127</v>
+        <v>3745</v>
       </c>
       <c r="K21" s="11">
-        <v>3613</v>
+        <v>4013</v>
       </c>
       <c r="L21" s="11">
-        <v>3745</v>
+        <v>3120</v>
       </c>
       <c r="M21" s="11">
-        <v>4013</v>
+        <v>3579</v>
       </c>
       <c r="N21" s="11">
-        <v>3120</v>
+        <v>3800</v>
       </c>
       <c r="O21" s="11">
-        <v>3579</v>
+        <v>3655</v>
       </c>
       <c r="P21" s="11">
-        <v>3800</v>
+        <v>3205</v>
       </c>
       <c r="Q21" s="11">
-        <v>3655</v>
+        <v>4188</v>
       </c>
       <c r="R21" s="11">
-        <v>3205</v>
+        <v>4242</v>
       </c>
       <c r="S21" s="11">
-        <v>4188</v>
+        <v>2782</v>
       </c>
       <c r="T21" s="11">
-        <v>4242</v>
+        <v>1511</v>
       </c>
       <c r="U21" s="11">
-        <v>2782</v>
+        <v>4124</v>
       </c>
       <c r="V21" s="11">
-        <v>1511</v>
+        <v>3932</v>
       </c>
       <c r="W21" s="11">
+        <v>3905</v>
+      </c>
+      <c r="X21" s="11">
+        <v>3640</v>
+      </c>
+      <c r="Y21" s="11">
         <v>4124</v>
       </c>
-      <c r="X21" s="11">
-        <v>3932</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>3905</v>
-      </c>
       <c r="Z21" s="11">
-        <v>3640</v>
+        <v>4155</v>
       </c>
       <c r="AA21" s="11">
-        <v>4124</v>
+        <v>4594</v>
       </c>
       <c r="AB21" s="11">
-        <v>4155</v>
+        <v>4721</v>
       </c>
       <c r="AC21" s="11">
-        <v>4594</v>
+        <v>4982</v>
       </c>
       <c r="AD21" s="11">
-        <v>4721</v>
+        <v>4873</v>
       </c>
       <c r="AE21" s="11">
-        <v>4982</v>
+        <v>4767</v>
       </c>
       <c r="AF21" s="11">
-        <v>4873</v>
+        <v>3117</v>
       </c>
       <c r="AG21" s="11">
-        <v>4767</v>
+        <v>3779</v>
       </c>
       <c r="AH21" s="11">
-        <v>3117</v>
+        <v>4545</v>
       </c>
       <c r="AI21" s="11">
-        <v>3779</v>
+        <v>4445</v>
       </c>
       <c r="AJ21" s="11">
-        <v>4545</v>
+        <v>3876</v>
       </c>
       <c r="AK21" s="11">
-        <v>4445</v>
+        <v>4663</v>
       </c>
       <c r="AL21" s="11">
-        <v>3876</v>
+        <v>4647</v>
       </c>
       <c r="AM21" s="11">
-        <v>4663</v>
+        <v>4651</v>
       </c>
       <c r="AN21" s="11">
-        <v>4647</v>
+        <v>5141</v>
       </c>
       <c r="AO21" s="11">
+        <v>4674</v>
+      </c>
+      <c r="AP21" s="11">
         <v>4651</v>
       </c>
-      <c r="AP21" s="11">
-        <v>5141</v>
-      </c>
       <c r="AQ21" s="11">
-        <v>4674</v>
+        <v>4348</v>
       </c>
       <c r="AR21" s="11">
-        <v>4651</v>
+        <v>3642</v>
       </c>
       <c r="AS21" s="11">
-        <v>4348</v>
+        <v>4665</v>
       </c>
       <c r="AT21" s="11">
-        <v>3642</v>
+        <v>5260</v>
       </c>
       <c r="AU21" s="11">
-        <v>4665</v>
+        <v>5229</v>
       </c>
       <c r="AV21" s="11">
-        <v>5260</v>
+        <v>4780</v>
       </c>
       <c r="AW21" s="11">
-        <v>5229</v>
+        <v>5593</v>
       </c>
       <c r="AX21" s="11">
-        <v>4780</v>
+        <v>5157</v>
       </c>
       <c r="AY21" s="11">
-        <v>5593</v>
+        <v>5769</v>
       </c>
       <c r="AZ21" s="11">
-        <v>5157</v>
+        <v>5727</v>
       </c>
       <c r="BA21" s="11">
-        <v>5769</v>
+        <v>6148</v>
       </c>
       <c r="BB21" s="11">
-        <v>5728</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.25">
@@ -2587,11 +2622,11 @@
       <c r="V23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>59</v>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
@@ -2803,101 +2838,101 @@
       <c r="V25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>59</v>
+      <c r="W25" s="11">
+        <v>-27</v>
+      </c>
+      <c r="X25" s="11">
+        <v>-15</v>
       </c>
       <c r="Y25" s="11">
+        <v>-26</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>-16</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>-32</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>-23</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>-37</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>-35</v>
+      </c>
+      <c r="AF25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>-9</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>-18</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>-28</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>-20</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>-47</v>
+      </c>
+      <c r="AM25" s="11">
+        <v>-16</v>
+      </c>
+      <c r="AN25" s="11">
+        <v>-31</v>
+      </c>
+      <c r="AO25" s="11">
         <v>-27</v>
       </c>
-      <c r="Z25" s="11">
-        <v>-15</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>-26</v>
-      </c>
-      <c r="AB25" s="11">
+      <c r="AP25" s="11">
         <v>-16</v>
       </c>
-      <c r="AC25" s="11">
-        <v>-32</v>
-      </c>
-      <c r="AD25" s="11">
+      <c r="AQ25" s="11">
+        <v>-59</v>
+      </c>
+      <c r="AR25" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>-12</v>
+      </c>
+      <c r="AV25" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AW25" s="11">
+        <v>-69</v>
+      </c>
+      <c r="AX25" s="11">
+        <v>-8</v>
+      </c>
+      <c r="AY25" s="11">
+        <v>-9</v>
+      </c>
+      <c r="AZ25" s="11">
+        <v>-38</v>
+      </c>
+      <c r="BA25" s="11">
         <v>-23</v>
       </c>
-      <c r="AE25" s="11">
-        <v>-37</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>-19</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>-35</v>
-      </c>
-      <c r="AH25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>-9</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>-18</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>-28</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>-20</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>-47</v>
-      </c>
-      <c r="AO25" s="11">
-        <v>-16</v>
-      </c>
-      <c r="AP25" s="11">
-        <v>-31</v>
-      </c>
-      <c r="AQ25" s="11">
-        <v>-27</v>
-      </c>
-      <c r="AR25" s="11">
-        <v>-16</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>-59</v>
-      </c>
-      <c r="AT25" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AU25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="11">
-        <v>-19</v>
-      </c>
-      <c r="AW25" s="11">
-        <v>-12</v>
-      </c>
-      <c r="AX25" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AY25" s="11">
-        <v>-69</v>
-      </c>
-      <c r="AZ25" s="11">
-        <v>-8</v>
-      </c>
-      <c r="BA25" s="11">
-        <v>-9</v>
-      </c>
       <c r="BB25" s="11">
-        <v>-38</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.25">
@@ -2960,101 +2995,101 @@
       <c r="V26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="W26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="X26" s="17" t="s">
-        <v>59</v>
+      <c r="W26" s="17">
+        <v>-27</v>
+      </c>
+      <c r="X26" s="17">
+        <v>-15</v>
       </c>
       <c r="Y26" s="17">
+        <v>-26</v>
+      </c>
+      <c r="Z26" s="17">
+        <v>-16</v>
+      </c>
+      <c r="AA26" s="17">
+        <v>-32</v>
+      </c>
+      <c r="AB26" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AC26" s="17">
+        <v>-37</v>
+      </c>
+      <c r="AD26" s="17">
+        <v>-19</v>
+      </c>
+      <c r="AE26" s="17">
+        <v>-35</v>
+      </c>
+      <c r="AF26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="17">
+        <v>-9</v>
+      </c>
+      <c r="AH26" s="17">
+        <v>-18</v>
+      </c>
+      <c r="AI26" s="17">
+        <v>-28</v>
+      </c>
+      <c r="AJ26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="17">
+        <v>-20</v>
+      </c>
+      <c r="AL26" s="17">
+        <v>-47</v>
+      </c>
+      <c r="AM26" s="17">
+        <v>-16</v>
+      </c>
+      <c r="AN26" s="17">
+        <v>-31</v>
+      </c>
+      <c r="AO26" s="17">
         <v>-27</v>
       </c>
-      <c r="Z26" s="17">
-        <v>-15</v>
-      </c>
-      <c r="AA26" s="17">
-        <v>-26</v>
-      </c>
-      <c r="AB26" s="17">
+      <c r="AP26" s="17">
         <v>-16</v>
       </c>
-      <c r="AC26" s="17">
-        <v>-32</v>
-      </c>
-      <c r="AD26" s="17">
+      <c r="AQ26" s="17">
+        <v>-59</v>
+      </c>
+      <c r="AR26" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AS26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="17">
+        <v>-19</v>
+      </c>
+      <c r="AU26" s="17">
+        <v>-12</v>
+      </c>
+      <c r="AV26" s="17">
+        <v>-5</v>
+      </c>
+      <c r="AW26" s="17">
+        <v>-69</v>
+      </c>
+      <c r="AX26" s="17">
+        <v>-8</v>
+      </c>
+      <c r="AY26" s="17">
+        <v>-9</v>
+      </c>
+      <c r="AZ26" s="17">
+        <v>-38</v>
+      </c>
+      <c r="BA26" s="17">
         <v>-23</v>
       </c>
-      <c r="AE26" s="17">
-        <v>-37</v>
-      </c>
-      <c r="AF26" s="17">
-        <v>-19</v>
-      </c>
-      <c r="AG26" s="17">
-        <v>-35</v>
-      </c>
-      <c r="AH26" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="17">
-        <v>-9</v>
-      </c>
-      <c r="AJ26" s="17">
-        <v>-18</v>
-      </c>
-      <c r="AK26" s="17">
-        <v>-28</v>
-      </c>
-      <c r="AL26" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="17">
-        <v>-20</v>
-      </c>
-      <c r="AN26" s="17">
-        <v>-47</v>
-      </c>
-      <c r="AO26" s="17">
-        <v>-16</v>
-      </c>
-      <c r="AP26" s="17">
-        <v>-31</v>
-      </c>
-      <c r="AQ26" s="17">
-        <v>-27</v>
-      </c>
-      <c r="AR26" s="17">
-        <v>-16</v>
-      </c>
-      <c r="AS26" s="17">
-        <v>-59</v>
-      </c>
-      <c r="AT26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AU26" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="17">
-        <v>-19</v>
-      </c>
-      <c r="AW26" s="17">
-        <v>-12</v>
-      </c>
-      <c r="AX26" s="17">
-        <v>-5</v>
-      </c>
-      <c r="AY26" s="17">
-        <v>-69</v>
-      </c>
-      <c r="AZ26" s="17">
-        <v>-8</v>
-      </c>
-      <c r="BA26" s="17">
-        <v>-9</v>
-      </c>
       <c r="BB26" s="17">
-        <v>-38</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
@@ -3064,154 +3099,154 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>3645</v>
+        <v>3594</v>
       </c>
       <c r="F27" s="15">
-        <v>3637</v>
+        <v>3987</v>
       </c>
       <c r="G27" s="15">
-        <v>3594</v>
+        <v>4442</v>
       </c>
       <c r="H27" s="15">
-        <v>3987</v>
+        <v>2127</v>
       </c>
       <c r="I27" s="15">
-        <v>4442</v>
+        <v>3613</v>
       </c>
       <c r="J27" s="15">
-        <v>2127</v>
+        <v>3745</v>
       </c>
       <c r="K27" s="15">
-        <v>3613</v>
+        <v>4013</v>
       </c>
       <c r="L27" s="15">
-        <v>3745</v>
+        <v>3120</v>
       </c>
       <c r="M27" s="15">
-        <v>4013</v>
+        <v>3579</v>
       </c>
       <c r="N27" s="15">
-        <v>3120</v>
+        <v>3800</v>
       </c>
       <c r="O27" s="15">
-        <v>3579</v>
+        <v>3655</v>
       </c>
       <c r="P27" s="15">
-        <v>3800</v>
+        <v>3205</v>
       </c>
       <c r="Q27" s="15">
-        <v>3655</v>
+        <v>4188</v>
       </c>
       <c r="R27" s="15">
-        <v>3205</v>
+        <v>4242</v>
       </c>
       <c r="S27" s="15">
-        <v>4188</v>
+        <v>2782</v>
       </c>
       <c r="T27" s="15">
-        <v>4242</v>
+        <v>1511</v>
       </c>
       <c r="U27" s="15">
-        <v>2782</v>
+        <v>4124</v>
       </c>
       <c r="V27" s="15">
-        <v>1511</v>
+        <v>3932</v>
       </c>
       <c r="W27" s="15">
-        <v>4124</v>
+        <v>3878</v>
       </c>
       <c r="X27" s="15">
-        <v>3932</v>
+        <v>3625</v>
       </c>
       <c r="Y27" s="15">
-        <v>3878</v>
+        <v>4098</v>
       </c>
       <c r="Z27" s="15">
-        <v>3625</v>
+        <v>4139</v>
       </c>
       <c r="AA27" s="15">
-        <v>4098</v>
+        <v>4562</v>
       </c>
       <c r="AB27" s="15">
-        <v>4139</v>
+        <v>4698</v>
       </c>
       <c r="AC27" s="15">
-        <v>4562</v>
+        <v>4945</v>
       </c>
       <c r="AD27" s="15">
-        <v>4698</v>
+        <v>4854</v>
       </c>
       <c r="AE27" s="15">
-        <v>4945</v>
+        <v>4732</v>
       </c>
       <c r="AF27" s="15">
-        <v>4854</v>
+        <v>3117</v>
       </c>
       <c r="AG27" s="15">
-        <v>4732</v>
+        <v>3770</v>
       </c>
       <c r="AH27" s="15">
-        <v>3117</v>
+        <v>4527</v>
       </c>
       <c r="AI27" s="15">
-        <v>3770</v>
+        <v>4417</v>
       </c>
       <c r="AJ27" s="15">
-        <v>4527</v>
+        <v>3876</v>
       </c>
       <c r="AK27" s="15">
-        <v>4417</v>
+        <v>4643</v>
       </c>
       <c r="AL27" s="15">
-        <v>3876</v>
+        <v>4600</v>
       </c>
       <c r="AM27" s="15">
-        <v>4643</v>
+        <v>4635</v>
       </c>
       <c r="AN27" s="15">
-        <v>4600</v>
+        <v>5110</v>
       </c>
       <c r="AO27" s="15">
+        <v>4647</v>
+      </c>
+      <c r="AP27" s="15">
         <v>4635</v>
       </c>
-      <c r="AP27" s="15">
-        <v>5110</v>
-      </c>
       <c r="AQ27" s="15">
-        <v>4647</v>
+        <v>4289</v>
       </c>
       <c r="AR27" s="15">
-        <v>4635</v>
+        <v>3640</v>
       </c>
       <c r="AS27" s="15">
-        <v>4289</v>
+        <v>4665</v>
       </c>
       <c r="AT27" s="15">
-        <v>3640</v>
+        <v>5241</v>
       </c>
       <c r="AU27" s="15">
-        <v>4665</v>
+        <v>5217</v>
       </c>
       <c r="AV27" s="15">
-        <v>5241</v>
+        <v>4775</v>
       </c>
       <c r="AW27" s="15">
-        <v>5217</v>
+        <v>5524</v>
       </c>
       <c r="AX27" s="15">
-        <v>4775</v>
+        <v>5149</v>
       </c>
       <c r="AY27" s="15">
-        <v>5524</v>
+        <v>5760</v>
       </c>
       <c r="AZ27" s="15">
-        <v>5149</v>
+        <v>5689</v>
       </c>
       <c r="BA27" s="15">
-        <v>5760</v>
+        <v>6125</v>
       </c>
       <c r="BB27" s="15">
-        <v>5690</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
@@ -3657,154 +3692,154 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>188269</v>
+        <v>232449</v>
       </c>
       <c r="F34" s="11">
-        <v>207782</v>
+        <v>289863</v>
       </c>
       <c r="G34" s="11">
-        <v>232449</v>
+        <v>379169</v>
       </c>
       <c r="H34" s="11">
-        <v>289863</v>
+        <v>172606</v>
       </c>
       <c r="I34" s="11">
-        <v>379169</v>
+        <v>295323</v>
       </c>
       <c r="J34" s="11">
-        <v>172606</v>
+        <v>330538</v>
       </c>
       <c r="K34" s="11">
-        <v>295323</v>
+        <v>388043</v>
       </c>
       <c r="L34" s="11">
-        <v>330538</v>
+        <v>303159</v>
       </c>
       <c r="M34" s="11">
-        <v>388043</v>
+        <v>346020</v>
       </c>
       <c r="N34" s="11">
-        <v>303159</v>
+        <v>351546</v>
       </c>
       <c r="O34" s="11">
-        <v>346020</v>
+        <v>336718</v>
       </c>
       <c r="P34" s="11">
-        <v>351546</v>
+        <v>287148</v>
       </c>
       <c r="Q34" s="11">
-        <v>336718</v>
+        <v>431096</v>
       </c>
       <c r="R34" s="11">
-        <v>287148</v>
+        <v>452015</v>
       </c>
       <c r="S34" s="11">
-        <v>431096</v>
+        <v>264920</v>
       </c>
       <c r="T34" s="11">
-        <v>452015</v>
+        <v>135464</v>
       </c>
       <c r="U34" s="11">
-        <v>264920</v>
+        <v>396919</v>
       </c>
       <c r="V34" s="11">
-        <v>135464</v>
+        <v>433109</v>
       </c>
       <c r="W34" s="11">
-        <v>396919</v>
+        <v>434928</v>
       </c>
       <c r="X34" s="11">
-        <v>433109</v>
+        <v>442225</v>
       </c>
       <c r="Y34" s="11">
-        <v>434928</v>
+        <v>557912</v>
       </c>
       <c r="Z34" s="11">
-        <v>442225</v>
+        <v>658069</v>
       </c>
       <c r="AA34" s="11">
-        <v>557912</v>
+        <v>864173</v>
       </c>
       <c r="AB34" s="11">
-        <v>658069</v>
+        <v>767093</v>
       </c>
       <c r="AC34" s="11">
-        <v>864173</v>
+        <v>885063</v>
       </c>
       <c r="AD34" s="11">
-        <v>767093</v>
+        <v>1088682</v>
       </c>
       <c r="AE34" s="11">
-        <v>885063</v>
+        <v>1084040</v>
       </c>
       <c r="AF34" s="11">
-        <v>1088682</v>
+        <v>696108</v>
       </c>
       <c r="AG34" s="11">
-        <v>1084040</v>
+        <v>834751</v>
       </c>
       <c r="AH34" s="11">
-        <v>696108</v>
+        <v>996867</v>
       </c>
       <c r="AI34" s="11">
-        <v>834751</v>
+        <v>964919</v>
       </c>
       <c r="AJ34" s="11">
-        <v>996867</v>
+        <v>976425</v>
       </c>
       <c r="AK34" s="11">
-        <v>964919</v>
+        <v>1177921</v>
       </c>
       <c r="AL34" s="11">
-        <v>976425</v>
+        <v>1207213</v>
       </c>
       <c r="AM34" s="11">
-        <v>1177921</v>
+        <v>1205432</v>
       </c>
       <c r="AN34" s="11">
-        <v>1207213</v>
+        <v>1324904</v>
       </c>
       <c r="AO34" s="11">
-        <v>1205432</v>
+        <v>1242960</v>
       </c>
       <c r="AP34" s="11">
-        <v>1324904</v>
+        <v>1205281</v>
       </c>
       <c r="AQ34" s="11">
-        <v>1242960</v>
+        <v>1336830</v>
       </c>
       <c r="AR34" s="11">
-        <v>1547763</v>
+        <v>1138002</v>
       </c>
       <c r="AS34" s="11">
-        <v>1336830</v>
+        <v>1489366</v>
       </c>
       <c r="AT34" s="11">
-        <v>1138002</v>
+        <v>1701038</v>
       </c>
       <c r="AU34" s="11">
-        <v>1489366</v>
+        <v>1695095</v>
       </c>
       <c r="AV34" s="11">
-        <v>1701038</v>
+        <v>1894856</v>
       </c>
       <c r="AW34" s="11">
-        <v>2043604</v>
+        <v>2285656</v>
       </c>
       <c r="AX34" s="11">
-        <v>1894856</v>
+        <v>2063840</v>
       </c>
       <c r="AY34" s="11">
-        <v>2285656</v>
+        <v>2285417</v>
       </c>
       <c r="AZ34" s="11">
-        <v>2063840</v>
+        <v>2312060</v>
       </c>
       <c r="BA34" s="11">
-        <v>2285417</v>
+        <v>2510301</v>
       </c>
       <c r="BB34" s="11">
-        <v>2311682</v>
+        <v>2657759</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
@@ -3926,11 +3961,11 @@
       <c r="V36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="W36" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="X36" s="15" t="s">
-        <v>59</v>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15">
+        <v>0</v>
       </c>
       <c r="Y36" s="15">
         <v>0</v>
@@ -4142,101 +4177,101 @@
       <c r="V38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>59</v>
+      <c r="W38" s="11">
+        <v>-2568</v>
+      </c>
+      <c r="X38" s="11">
+        <v>-1463</v>
       </c>
       <c r="Y38" s="11">
-        <v>-2568</v>
+        <v>-3581</v>
       </c>
       <c r="Z38" s="11">
-        <v>-1463</v>
+        <v>-1750</v>
       </c>
       <c r="AA38" s="11">
-        <v>-3581</v>
+        <v>-4625</v>
       </c>
       <c r="AB38" s="11">
-        <v>-1750</v>
+        <v>-3214</v>
       </c>
       <c r="AC38" s="11">
-        <v>-4625</v>
+        <v>-4166</v>
       </c>
       <c r="AD38" s="11">
-        <v>-3214</v>
+        <v>-3440</v>
       </c>
       <c r="AE38" s="11">
-        <v>-4166</v>
-      </c>
-      <c r="AF38" s="11">
-        <v>-3440</v>
+        <v>-7146</v>
+      </c>
+      <c r="AF38" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AG38" s="11">
-        <v>-7146</v>
-      </c>
-      <c r="AH38" s="11" t="s">
-        <v>59</v>
+        <v>-1440</v>
+      </c>
+      <c r="AH38" s="11">
+        <v>-3656</v>
       </c>
       <c r="AI38" s="11">
-        <v>-1440</v>
+        <v>-5163</v>
       </c>
       <c r="AJ38" s="11">
-        <v>-3656</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="11">
-        <v>-5163</v>
+        <v>-2943</v>
       </c>
       <c r="AL38" s="11">
-        <v>0</v>
+        <v>-11229</v>
       </c>
       <c r="AM38" s="11">
-        <v>-2943</v>
+        <v>-2957</v>
       </c>
       <c r="AN38" s="11">
-        <v>-11229</v>
+        <v>-8405</v>
       </c>
       <c r="AO38" s="11">
-        <v>-2957</v>
+        <v>-6996</v>
       </c>
       <c r="AP38" s="11">
-        <v>-8405</v>
+        <v>-5015</v>
       </c>
       <c r="AQ38" s="11">
-        <v>-6996</v>
+        <v>-12778</v>
       </c>
       <c r="AR38" s="11">
-        <v>-5015</v>
+        <v>-664</v>
       </c>
       <c r="AS38" s="11">
-        <v>-12778</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="11">
-        <v>-664</v>
+        <v>-6110</v>
       </c>
       <c r="AU38" s="11">
-        <v>0</v>
+        <v>-3865</v>
       </c>
       <c r="AV38" s="11">
-        <v>-6110</v>
+        <v>-1784</v>
       </c>
       <c r="AW38" s="11">
-        <v>-3865</v>
+        <v>-10395</v>
       </c>
       <c r="AX38" s="11">
-        <v>-1784</v>
+        <v>-3659</v>
       </c>
       <c r="AY38" s="11">
-        <v>-10395</v>
+        <v>-2429</v>
       </c>
       <c r="AZ38" s="11">
-        <v>-3659</v>
+        <v>-12098</v>
       </c>
       <c r="BA38" s="11">
-        <v>-2429</v>
+        <v>-6705</v>
       </c>
       <c r="BB38" s="11">
-        <v>-12098</v>
+        <v>-12051</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.25">
@@ -4301,101 +4336,101 @@
       <c r="V39" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="W39" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>59</v>
+      <c r="W39" s="17">
+        <v>-2568</v>
+      </c>
+      <c r="X39" s="17">
+        <v>-1463</v>
       </c>
       <c r="Y39" s="17">
-        <v>-2568</v>
+        <v>-3581</v>
       </c>
       <c r="Z39" s="17">
-        <v>-1463</v>
+        <v>-1750</v>
       </c>
       <c r="AA39" s="17">
-        <v>-3581</v>
+        <v>-4625</v>
       </c>
       <c r="AB39" s="17">
-        <v>-1750</v>
+        <v>-3214</v>
       </c>
       <c r="AC39" s="17">
-        <v>-4625</v>
+        <v>-4166</v>
       </c>
       <c r="AD39" s="17">
-        <v>-3214</v>
+        <v>-3440</v>
       </c>
       <c r="AE39" s="17">
-        <v>-4166</v>
+        <v>-7146</v>
       </c>
       <c r="AF39" s="17">
-        <v>-3440</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="17">
-        <v>-7146</v>
+        <v>-1440</v>
       </c>
       <c r="AH39" s="17">
-        <v>0</v>
+        <v>-3656</v>
       </c>
       <c r="AI39" s="17">
-        <v>-1440</v>
+        <v>-5163</v>
       </c>
       <c r="AJ39" s="17">
-        <v>-3656</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="17">
-        <v>-5163</v>
+        <v>-2943</v>
       </c>
       <c r="AL39" s="17">
-        <v>0</v>
+        <v>-11229</v>
       </c>
       <c r="AM39" s="17">
-        <v>-2943</v>
+        <v>-2957</v>
       </c>
       <c r="AN39" s="17">
-        <v>-11229</v>
+        <v>-8405</v>
       </c>
       <c r="AO39" s="17">
-        <v>-2957</v>
+        <v>-6996</v>
       </c>
       <c r="AP39" s="17">
-        <v>-8405</v>
+        <v>-5015</v>
       </c>
       <c r="AQ39" s="17">
-        <v>-6996</v>
+        <v>-12778</v>
       </c>
       <c r="AR39" s="17">
-        <v>-5015</v>
+        <v>-664</v>
       </c>
       <c r="AS39" s="17">
-        <v>-12778</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="17">
-        <v>-664</v>
+        <v>-6110</v>
       </c>
       <c r="AU39" s="17">
-        <v>0</v>
+        <v>-3865</v>
       </c>
       <c r="AV39" s="17">
-        <v>-6110</v>
+        <v>-1784</v>
       </c>
       <c r="AW39" s="17">
-        <v>-3865</v>
+        <v>-10395</v>
       </c>
       <c r="AX39" s="17">
-        <v>-1784</v>
+        <v>-3659</v>
       </c>
       <c r="AY39" s="17">
-        <v>-10395</v>
+        <v>-2429</v>
       </c>
       <c r="AZ39" s="17">
-        <v>-3659</v>
+        <v>-12098</v>
       </c>
       <c r="BA39" s="17">
-        <v>-2429</v>
+        <v>-6705</v>
       </c>
       <c r="BB39" s="17">
-        <v>-12098</v>
+        <v>-12051</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
@@ -4517,11 +4552,11 @@
       <c r="V41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>59</v>
+      <c r="W41" s="11">
+        <v>0</v>
+      </c>
+      <c r="X41" s="11">
+        <v>0</v>
       </c>
       <c r="Y41" s="11">
         <v>0</v>
@@ -4621,154 +4656,154 @@
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17">
-        <v>188269</v>
+        <v>232449</v>
       </c>
       <c r="F42" s="17">
-        <v>207782</v>
+        <v>289863</v>
       </c>
       <c r="G42" s="17">
-        <v>232449</v>
+        <v>379169</v>
       </c>
       <c r="H42" s="17">
-        <v>289863</v>
+        <v>172606</v>
       </c>
       <c r="I42" s="17">
-        <v>379169</v>
+        <v>295323</v>
       </c>
       <c r="J42" s="17">
-        <v>172606</v>
+        <v>330538</v>
       </c>
       <c r="K42" s="17">
-        <v>295323</v>
+        <v>388043</v>
       </c>
       <c r="L42" s="17">
-        <v>330538</v>
+        <v>303159</v>
       </c>
       <c r="M42" s="17">
-        <v>388043</v>
+        <v>346020</v>
       </c>
       <c r="N42" s="17">
-        <v>303159</v>
+        <v>351546</v>
       </c>
       <c r="O42" s="17">
-        <v>346020</v>
+        <v>336718</v>
       </c>
       <c r="P42" s="17">
-        <v>351546</v>
+        <v>287148</v>
       </c>
       <c r="Q42" s="17">
-        <v>336718</v>
+        <v>431096</v>
       </c>
       <c r="R42" s="17">
-        <v>287148</v>
+        <v>452015</v>
       </c>
       <c r="S42" s="17">
-        <v>431096</v>
+        <v>264920</v>
       </c>
       <c r="T42" s="17">
-        <v>452015</v>
+        <v>135464</v>
       </c>
       <c r="U42" s="17">
-        <v>264920</v>
+        <v>396919</v>
       </c>
       <c r="V42" s="17">
-        <v>135464</v>
+        <v>433109</v>
       </c>
       <c r="W42" s="17">
-        <v>396919</v>
+        <v>432360</v>
       </c>
       <c r="X42" s="17">
-        <v>433109</v>
+        <v>440762</v>
       </c>
       <c r="Y42" s="17">
-        <v>432360</v>
+        <v>554331</v>
       </c>
       <c r="Z42" s="17">
-        <v>440762</v>
+        <v>656319</v>
       </c>
       <c r="AA42" s="17">
-        <v>554331</v>
+        <v>859548</v>
       </c>
       <c r="AB42" s="17">
-        <v>656319</v>
+        <v>763879</v>
       </c>
       <c r="AC42" s="17">
-        <v>859548</v>
+        <v>880897</v>
       </c>
       <c r="AD42" s="17">
-        <v>763879</v>
+        <v>1085242</v>
       </c>
       <c r="AE42" s="17">
-        <v>880897</v>
+        <v>1076894</v>
       </c>
       <c r="AF42" s="17">
-        <v>1085242</v>
+        <v>696108</v>
       </c>
       <c r="AG42" s="17">
-        <v>1076894</v>
+        <v>833311</v>
       </c>
       <c r="AH42" s="17">
-        <v>696108</v>
+        <v>993211</v>
       </c>
       <c r="AI42" s="17">
-        <v>833311</v>
+        <v>959756</v>
       </c>
       <c r="AJ42" s="17">
-        <v>993211</v>
+        <v>976425</v>
       </c>
       <c r="AK42" s="17">
-        <v>959756</v>
+        <v>1174978</v>
       </c>
       <c r="AL42" s="17">
-        <v>976425</v>
+        <v>1195984</v>
       </c>
       <c r="AM42" s="17">
-        <v>1174978</v>
+        <v>1202475</v>
       </c>
       <c r="AN42" s="17">
-        <v>1195984</v>
+        <v>1316499</v>
       </c>
       <c r="AO42" s="17">
-        <v>1202475</v>
+        <v>1235964</v>
       </c>
       <c r="AP42" s="17">
-        <v>1316499</v>
+        <v>1200266</v>
       </c>
       <c r="AQ42" s="17">
-        <v>1235964</v>
+        <v>1324052</v>
       </c>
       <c r="AR42" s="17">
-        <v>1542748</v>
+        <v>1137338</v>
       </c>
       <c r="AS42" s="17">
-        <v>1324052</v>
+        <v>1489366</v>
       </c>
       <c r="AT42" s="17">
-        <v>1137338</v>
+        <v>1694928</v>
       </c>
       <c r="AU42" s="17">
-        <v>1489366</v>
+        <v>1691230</v>
       </c>
       <c r="AV42" s="17">
-        <v>1694928</v>
+        <v>1893072</v>
       </c>
       <c r="AW42" s="17">
-        <v>2039739</v>
+        <v>2275261</v>
       </c>
       <c r="AX42" s="17">
-        <v>1893072</v>
+        <v>2060181</v>
       </c>
       <c r="AY42" s="17">
-        <v>2275261</v>
+        <v>2282988</v>
       </c>
       <c r="AZ42" s="17">
-        <v>2060181</v>
+        <v>2299962</v>
       </c>
       <c r="BA42" s="17">
-        <v>2282988</v>
+        <v>2503596</v>
       </c>
       <c r="BB42" s="17">
-        <v>2299584</v>
+        <v>2645708</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
@@ -5214,154 +5249,154 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>51651303</v>
+        <v>64676962</v>
       </c>
       <c r="F49" s="11">
-        <v>57130052</v>
+        <v>72702032</v>
       </c>
       <c r="G49" s="11">
-        <v>64676962</v>
+        <v>85359973</v>
       </c>
       <c r="H49" s="11">
-        <v>72702032</v>
+        <v>81149976</v>
       </c>
       <c r="I49" s="11">
-        <v>85359973</v>
+        <v>81738998</v>
       </c>
       <c r="J49" s="11">
-        <v>81149976</v>
+        <v>88261148</v>
       </c>
       <c r="K49" s="11">
-        <v>81738998</v>
+        <v>96696486</v>
       </c>
       <c r="L49" s="11">
-        <v>88261148</v>
+        <v>97166346</v>
       </c>
       <c r="M49" s="11">
-        <v>96696486</v>
+        <v>96680637</v>
       </c>
       <c r="N49" s="11">
-        <v>97166346</v>
+        <v>92512105</v>
       </c>
       <c r="O49" s="11">
-        <v>96680637</v>
+        <v>92125308</v>
       </c>
       <c r="P49" s="11">
-        <v>92512105</v>
+        <v>89593760</v>
       </c>
       <c r="Q49" s="11">
-        <v>92125308</v>
+        <v>102936008</v>
       </c>
       <c r="R49" s="11">
-        <v>89593760</v>
+        <v>106557049</v>
       </c>
       <c r="S49" s="11">
-        <v>102936008</v>
+        <v>95226456</v>
       </c>
       <c r="T49" s="11">
-        <v>106557049</v>
+        <v>89651886</v>
       </c>
       <c r="U49" s="11">
-        <v>95226456</v>
+        <v>96246120</v>
       </c>
       <c r="V49" s="11">
-        <v>89651886</v>
+        <v>110149797</v>
       </c>
       <c r="W49" s="11">
-        <v>96246120</v>
+        <v>111377209</v>
       </c>
       <c r="X49" s="11">
-        <v>110149797</v>
+        <v>121490385</v>
       </c>
       <c r="Y49" s="11">
-        <v>111377209</v>
+        <v>135284190</v>
       </c>
       <c r="Z49" s="11">
-        <v>121490385</v>
+        <v>158380024</v>
       </c>
       <c r="AA49" s="11">
-        <v>135284190</v>
+        <v>188109055</v>
       </c>
       <c r="AB49" s="11">
-        <v>158380024</v>
+        <v>162485279</v>
       </c>
       <c r="AC49" s="11">
-        <v>188109055</v>
+        <v>177652148</v>
       </c>
       <c r="AD49" s="11">
-        <v>162485279</v>
+        <v>223411040</v>
       </c>
       <c r="AE49" s="11">
-        <v>177652148</v>
+        <v>227405077</v>
       </c>
       <c r="AF49" s="11">
-        <v>223411040</v>
+        <v>223326275</v>
       </c>
       <c r="AG49" s="11">
-        <v>227405077</v>
+        <v>220892035</v>
       </c>
       <c r="AH49" s="11">
-        <v>223326275</v>
+        <v>219332673</v>
       </c>
       <c r="AI49" s="11">
-        <v>220892035</v>
+        <v>217079640</v>
       </c>
       <c r="AJ49" s="11">
-        <v>219332673</v>
+        <v>251915635</v>
       </c>
       <c r="AK49" s="11">
-        <v>217079640</v>
+        <v>252610122</v>
       </c>
       <c r="AL49" s="11">
-        <v>251915635</v>
+        <v>259783301</v>
       </c>
       <c r="AM49" s="11">
-        <v>252610122</v>
+        <v>259176951</v>
       </c>
       <c r="AN49" s="11">
-        <v>259783301</v>
+        <v>257713285</v>
       </c>
       <c r="AO49" s="11">
-        <v>259176951</v>
+        <v>265930680</v>
       </c>
       <c r="AP49" s="11">
-        <v>257713285</v>
+        <v>259144485</v>
       </c>
       <c r="AQ49" s="11">
-        <v>265930680</v>
+        <v>307458602</v>
       </c>
       <c r="AR49" s="11">
-        <v>266251543</v>
+        <v>312466227</v>
       </c>
       <c r="AS49" s="11">
-        <v>307458602</v>
+        <v>319263880</v>
       </c>
       <c r="AT49" s="11">
-        <v>312466227</v>
+        <v>323391255</v>
       </c>
       <c r="AU49" s="11">
-        <v>319263880</v>
+        <v>324171926</v>
       </c>
       <c r="AV49" s="11">
-        <v>323391255</v>
+        <v>396413389</v>
       </c>
       <c r="AW49" s="11">
-        <v>342713584</v>
+        <v>408663687</v>
       </c>
       <c r="AX49" s="11">
-        <v>396413389</v>
+        <v>400201668</v>
       </c>
       <c r="AY49" s="11">
-        <v>408663687</v>
+        <v>396154793</v>
       </c>
       <c r="AZ49" s="11">
-        <v>400201668</v>
+        <v>403712240</v>
       </c>
       <c r="BA49" s="11">
-        <v>396154793</v>
+        <v>408311809</v>
       </c>
       <c r="BB49" s="11">
-        <v>403575768</v>
+        <v>416968779</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/khodro/khetrak/product/monthly.xlsx
+++ b/database/industries/khodro/khetrak/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="73">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3196,154 +3196,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
+        <v>3417</v>
+      </c>
+      <c r="F11" s="12" t="n">
+        <v>2060</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <v>3467</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>3988</v>
+      </c>
+      <c r="I11" s="12" t="n">
+        <v>4709</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>2975</v>
+      </c>
+      <c r="K11" s="12" t="n">
+        <v>3660</v>
+      </c>
+      <c r="L11" s="12" t="n">
         <v>4018</v>
       </c>
-      <c r="F11" s="12" t="n">
-        <v>3417</v>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>2060</v>
-      </c>
-      <c r="H11" s="12" t="n">
-        <v>3467</v>
-      </c>
-      <c r="I11" s="12" t="n">
-        <v>3988</v>
-      </c>
-      <c r="J11" s="12" t="n">
-        <v>4709</v>
-      </c>
-      <c r="K11" s="12" t="n">
-        <v>2975</v>
-      </c>
-      <c r="L11" s="12" t="n">
-        <v>3660</v>
-      </c>
       <c r="M11" s="12" t="n">
-        <v>4018</v>
+        <v>3207</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>3207</v>
+        <v>3587</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>3587</v>
+        <v>4029</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>4029</v>
+        <v>3835</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>3835</v>
+        <v>2949</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>2949</v>
+        <v>1541</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>1541</v>
+        <v>3615</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>3615</v>
+        <v>4115</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>4115</v>
+        <v>4138</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>4138</v>
+        <v>3270</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>3270</v>
+        <v>3861</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>3861</v>
+        <v>4122</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>4122</v>
+        <v>4162</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>4162</v>
+        <v>4405</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>4405</v>
+        <v>4439</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>4439</v>
+        <v>4849</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>4849</v>
+        <v>4100</v>
       </c>
       <c r="AD11" s="12" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>4151</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>4642</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>3237</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>5127</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
         <v>4100</v>
       </c>
-      <c r="AE11" s="12" t="n">
-        <v>3476</v>
-      </c>
-      <c r="AF11" s="12" t="n">
-        <v>3799</v>
-      </c>
-      <c r="AG11" s="12" t="n">
-        <v>4151</v>
-      </c>
-      <c r="AH11" s="12" t="n">
-        <v>4642</v>
-      </c>
-      <c r="AI11" s="12" t="n">
-        <v>3237</v>
-      </c>
-      <c r="AJ11" s="12" t="n">
-        <v>5127</v>
-      </c>
       <c r="AK11" s="12" t="n">
-        <v>4100</v>
+        <v>4721</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>4721</v>
+        <v>4727</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>4727</v>
+        <v>4274</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>4274</v>
+        <v>4624</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>4624</v>
+        <v>4371</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>4371</v>
+        <v>3560</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>3560</v>
+        <v>4660</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>4660</v>
+        <v>5251</v>
       </c>
       <c r="AS11" s="12" t="n">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="AT11" s="12" t="n">
-        <v>5249</v>
+        <v>4070</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>4070</v>
+        <v>5540</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>5540</v>
+        <v>4812</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>4812</v>
+        <v>6009</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>6009</v>
+        <v>5793</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>5793</v>
+        <v>5121</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>5121</v>
+        <v>5464</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>5464</v>
+        <v>5022</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>5022</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,8 +3457,8 @@
       <c r="T13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="16" t="s">
-        <v>59</v>
+      <c r="U13" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V13" s="16" t="n">
         <v>0</v>
@@ -3567,154 +3567,154 @@
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="n">
+        <v>3417</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>2060</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>3467</v>
+      </c>
+      <c r="H14" s="18" t="n">
+        <v>3988</v>
+      </c>
+      <c r="I14" s="18" t="n">
+        <v>4709</v>
+      </c>
+      <c r="J14" s="18" t="n">
+        <v>2975</v>
+      </c>
+      <c r="K14" s="18" t="n">
+        <v>3660</v>
+      </c>
+      <c r="L14" s="18" t="n">
         <v>4018</v>
       </c>
-      <c r="F14" s="18" t="n">
-        <v>3417</v>
-      </c>
-      <c r="G14" s="18" t="n">
-        <v>2060</v>
-      </c>
-      <c r="H14" s="18" t="n">
-        <v>3467</v>
-      </c>
-      <c r="I14" s="18" t="n">
-        <v>3988</v>
-      </c>
-      <c r="J14" s="18" t="n">
-        <v>4709</v>
-      </c>
-      <c r="K14" s="18" t="n">
-        <v>2975</v>
-      </c>
-      <c r="L14" s="18" t="n">
-        <v>3660</v>
-      </c>
       <c r="M14" s="18" t="n">
-        <v>4018</v>
+        <v>3207</v>
       </c>
       <c r="N14" s="18" t="n">
-        <v>3207</v>
+        <v>3587</v>
       </c>
       <c r="O14" s="18" t="n">
-        <v>3587</v>
+        <v>4029</v>
       </c>
       <c r="P14" s="18" t="n">
-        <v>4029</v>
+        <v>3835</v>
       </c>
       <c r="Q14" s="18" t="n">
-        <v>3835</v>
+        <v>2949</v>
       </c>
       <c r="R14" s="18" t="n">
-        <v>2949</v>
+        <v>1541</v>
       </c>
       <c r="S14" s="18" t="n">
-        <v>1541</v>
+        <v>3615</v>
       </c>
       <c r="T14" s="18" t="n">
-        <v>3615</v>
+        <v>4115</v>
       </c>
       <c r="U14" s="18" t="n">
-        <v>4115</v>
+        <v>4138</v>
       </c>
       <c r="V14" s="18" t="n">
-        <v>4138</v>
+        <v>3270</v>
       </c>
       <c r="W14" s="18" t="n">
-        <v>3270</v>
+        <v>3861</v>
       </c>
       <c r="X14" s="18" t="n">
-        <v>3861</v>
+        <v>4122</v>
       </c>
       <c r="Y14" s="18" t="n">
-        <v>4122</v>
+        <v>4162</v>
       </c>
       <c r="Z14" s="18" t="n">
-        <v>4162</v>
+        <v>4405</v>
       </c>
       <c r="AA14" s="18" t="n">
-        <v>4405</v>
+        <v>4439</v>
       </c>
       <c r="AB14" s="18" t="n">
-        <v>4439</v>
+        <v>4849</v>
       </c>
       <c r="AC14" s="18" t="n">
-        <v>4849</v>
+        <v>4100</v>
       </c>
       <c r="AD14" s="18" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AE14" s="18" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AF14" s="18" t="n">
+        <v>4151</v>
+      </c>
+      <c r="AG14" s="18" t="n">
+        <v>4642</v>
+      </c>
+      <c r="AH14" s="18" t="n">
+        <v>3237</v>
+      </c>
+      <c r="AI14" s="18" t="n">
+        <v>5127</v>
+      </c>
+      <c r="AJ14" s="18" t="n">
         <v>4100</v>
       </c>
-      <c r="AE14" s="18" t="n">
-        <v>3476</v>
-      </c>
-      <c r="AF14" s="18" t="n">
-        <v>3799</v>
-      </c>
-      <c r="AG14" s="18" t="n">
-        <v>4151</v>
-      </c>
-      <c r="AH14" s="18" t="n">
-        <v>4642</v>
-      </c>
-      <c r="AI14" s="18" t="n">
-        <v>3237</v>
-      </c>
-      <c r="AJ14" s="18" t="n">
-        <v>5127</v>
-      </c>
       <c r="AK14" s="18" t="n">
-        <v>4100</v>
+        <v>4721</v>
       </c>
       <c r="AL14" s="18" t="n">
-        <v>4721</v>
+        <v>4727</v>
       </c>
       <c r="AM14" s="18" t="n">
-        <v>4727</v>
+        <v>4274</v>
       </c>
       <c r="AN14" s="18" t="n">
-        <v>4274</v>
+        <v>4624</v>
       </c>
       <c r="AO14" s="18" t="n">
-        <v>4624</v>
+        <v>4371</v>
       </c>
       <c r="AP14" s="18" t="n">
-        <v>4371</v>
+        <v>3560</v>
       </c>
       <c r="AQ14" s="18" t="n">
-        <v>3560</v>
+        <v>4660</v>
       </c>
       <c r="AR14" s="18" t="n">
-        <v>4660</v>
+        <v>5251</v>
       </c>
       <c r="AS14" s="18" t="n">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="AT14" s="18" t="n">
-        <v>5249</v>
+        <v>4070</v>
       </c>
       <c r="AU14" s="18" t="n">
-        <v>4070</v>
+        <v>5540</v>
       </c>
       <c r="AV14" s="18" t="n">
-        <v>5540</v>
+        <v>4812</v>
       </c>
       <c r="AW14" s="18" t="n">
-        <v>4812</v>
+        <v>6009</v>
       </c>
       <c r="AX14" s="18" t="n">
-        <v>6009</v>
+        <v>5793</v>
       </c>
       <c r="AY14" s="18" t="n">
-        <v>5793</v>
+        <v>5121</v>
       </c>
       <c r="AZ14" s="18" t="n">
-        <v>5121</v>
+        <v>5464</v>
       </c>
       <c r="BA14" s="18" t="n">
-        <v>5464</v>
+        <v>5022</v>
       </c>
       <c r="BB14" s="18" t="n">
-        <v>5022</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,154 +4160,154 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="n">
-        <v>3987</v>
+        <v>4442</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>4442</v>
+        <v>2127</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>2127</v>
+        <v>3613</v>
       </c>
       <c r="H21" s="12" t="n">
-        <v>3613</v>
+        <v>3745</v>
       </c>
       <c r="I21" s="12" t="n">
-        <v>3745</v>
+        <v>4013</v>
       </c>
       <c r="J21" s="12" t="n">
-        <v>4013</v>
+        <v>3120</v>
       </c>
       <c r="K21" s="12" t="n">
-        <v>3120</v>
+        <v>3579</v>
       </c>
       <c r="L21" s="12" t="n">
-        <v>3579</v>
+        <v>3800</v>
       </c>
       <c r="M21" s="12" t="n">
-        <v>3800</v>
+        <v>3655</v>
       </c>
       <c r="N21" s="12" t="n">
-        <v>3655</v>
+        <v>3205</v>
       </c>
       <c r="O21" s="12" t="n">
-        <v>3205</v>
+        <v>4188</v>
       </c>
       <c r="P21" s="12" t="n">
-        <v>4188</v>
+        <v>4242</v>
       </c>
       <c r="Q21" s="12" t="n">
-        <v>4242</v>
+        <v>2782</v>
       </c>
       <c r="R21" s="12" t="n">
-        <v>2782</v>
+        <v>1511</v>
       </c>
       <c r="S21" s="12" t="n">
-        <v>1511</v>
+        <v>4124</v>
       </c>
       <c r="T21" s="12" t="n">
+        <v>3932</v>
+      </c>
+      <c r="U21" s="12" t="n">
+        <v>3905</v>
+      </c>
+      <c r="V21" s="12" t="n">
+        <v>3640</v>
+      </c>
+      <c r="W21" s="12" t="n">
         <v>4124</v>
       </c>
-      <c r="U21" s="12" t="n">
-        <v>3932</v>
-      </c>
-      <c r="V21" s="12" t="n">
-        <v>3905</v>
-      </c>
-      <c r="W21" s="12" t="n">
-        <v>3640</v>
-      </c>
       <c r="X21" s="12" t="n">
-        <v>4124</v>
+        <v>4155</v>
       </c>
       <c r="Y21" s="12" t="n">
-        <v>4155</v>
+        <v>4594</v>
       </c>
       <c r="Z21" s="12" t="n">
-        <v>4594</v>
+        <v>4721</v>
       </c>
       <c r="AA21" s="12" t="n">
-        <v>4721</v>
+        <v>4982</v>
       </c>
       <c r="AB21" s="12" t="n">
-        <v>4982</v>
+        <v>4873</v>
       </c>
       <c r="AC21" s="12" t="n">
-        <v>4873</v>
+        <v>4767</v>
       </c>
       <c r="AD21" s="12" t="n">
-        <v>4767</v>
+        <v>3117</v>
       </c>
       <c r="AE21" s="12" t="n">
-        <v>3117</v>
+        <v>3779</v>
       </c>
       <c r="AF21" s="12" t="n">
-        <v>3779</v>
+        <v>4545</v>
       </c>
       <c r="AG21" s="12" t="n">
-        <v>4545</v>
+        <v>4445</v>
       </c>
       <c r="AH21" s="12" t="n">
-        <v>4445</v>
+        <v>3876</v>
       </c>
       <c r="AI21" s="12" t="n">
-        <v>3876</v>
+        <v>4663</v>
       </c>
       <c r="AJ21" s="12" t="n">
-        <v>4663</v>
+        <v>4647</v>
       </c>
       <c r="AK21" s="12" t="n">
-        <v>4647</v>
+        <v>4651</v>
       </c>
       <c r="AL21" s="12" t="n">
+        <v>5141</v>
+      </c>
+      <c r="AM21" s="12" t="n">
+        <v>4674</v>
+      </c>
+      <c r="AN21" s="12" t="n">
         <v>4651</v>
       </c>
-      <c r="AM21" s="12" t="n">
-        <v>5141</v>
-      </c>
-      <c r="AN21" s="12" t="n">
-        <v>4674</v>
-      </c>
       <c r="AO21" s="12" t="n">
-        <v>4651</v>
+        <v>4348</v>
       </c>
       <c r="AP21" s="12" t="n">
-        <v>4348</v>
+        <v>3642</v>
       </c>
       <c r="AQ21" s="12" t="n">
-        <v>3642</v>
+        <v>4665</v>
       </c>
       <c r="AR21" s="12" t="n">
-        <v>4665</v>
+        <v>5260</v>
       </c>
       <c r="AS21" s="12" t="n">
-        <v>5260</v>
+        <v>5229</v>
       </c>
       <c r="AT21" s="12" t="n">
-        <v>5229</v>
+        <v>4780</v>
       </c>
       <c r="AU21" s="12" t="n">
-        <v>4780</v>
+        <v>5593</v>
       </c>
       <c r="AV21" s="12" t="n">
-        <v>5593</v>
+        <v>5157</v>
       </c>
       <c r="AW21" s="12" t="n">
-        <v>5157</v>
+        <v>5769</v>
       </c>
       <c r="AX21" s="12" t="n">
-        <v>5769</v>
+        <v>5727</v>
       </c>
       <c r="AY21" s="12" t="n">
-        <v>5727</v>
+        <v>6148</v>
       </c>
       <c r="AZ21" s="12" t="n">
-        <v>6148</v>
+        <v>6374</v>
       </c>
       <c r="BA21" s="12" t="n">
-        <v>6374</v>
+        <v>5319</v>
       </c>
       <c r="BB21" s="12" t="n">
-        <v>5319</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4421,8 +4421,8 @@
       <c r="T23" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U23" s="16" t="s">
-        <v>59</v>
+      <c r="U23" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="16" t="n">
         <v>0</v>
@@ -4637,107 +4637,107 @@
       <c r="T25" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="U25" s="19" t="s">
-        <v>59</v>
+      <c r="U25" s="19" t="n">
+        <v>-27</v>
       </c>
       <c r="V25" s="19" t="n">
+        <v>-15</v>
+      </c>
+      <c r="W25" s="19" t="n">
+        <v>-26</v>
+      </c>
+      <c r="X25" s="19" t="n">
+        <v>-16</v>
+      </c>
+      <c r="Y25" s="19" t="n">
+        <v>-32</v>
+      </c>
+      <c r="Z25" s="19" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AA25" s="19" t="n">
+        <v>-37</v>
+      </c>
+      <c r="AB25" s="19" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AC25" s="19" t="n">
+        <v>-35</v>
+      </c>
+      <c r="AD25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE25" s="19" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AF25" s="19" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AG25" s="19" t="n">
+        <v>-28</v>
+      </c>
+      <c r="AH25" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="19" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AJ25" s="19" t="n">
+        <v>-47</v>
+      </c>
+      <c r="AK25" s="19" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AL25" s="19" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AM25" s="19" t="n">
         <v>-27</v>
       </c>
-      <c r="W25" s="19" t="n">
-        <v>-15</v>
-      </c>
-      <c r="X25" s="19" t="n">
-        <v>-26</v>
-      </c>
-      <c r="Y25" s="19" t="n">
+      <c r="AN25" s="19" t="n">
         <v>-16</v>
       </c>
-      <c r="Z25" s="19" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AA25" s="19" t="n">
+      <c r="AO25" s="19" t="n">
+        <v>-59</v>
+      </c>
+      <c r="AP25" s="19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AQ25" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="19" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AS25" s="19" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AT25" s="19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AU25" s="19" t="n">
+        <v>-69</v>
+      </c>
+      <c r="AV25" s="19" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AW25" s="19" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AX25" s="19" t="n">
+        <v>-38</v>
+      </c>
+      <c r="AY25" s="19" t="n">
         <v>-23</v>
       </c>
-      <c r="AB25" s="19" t="n">
-        <v>-37</v>
-      </c>
-      <c r="AC25" s="19" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AD25" s="19" t="n">
-        <v>-35</v>
-      </c>
-      <c r="AE25" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF25" s="19" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AG25" s="19" t="n">
-        <v>-18</v>
-      </c>
-      <c r="AH25" s="19" t="n">
-        <v>-28</v>
-      </c>
-      <c r="AI25" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="19" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AK25" s="19" t="n">
-        <v>-47</v>
-      </c>
-      <c r="AL25" s="19" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AM25" s="19" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AN25" s="19" t="n">
-        <v>-27</v>
-      </c>
-      <c r="AO25" s="19" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AP25" s="19" t="n">
-        <v>-59</v>
-      </c>
-      <c r="AQ25" s="19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AR25" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="19" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AT25" s="19" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AU25" s="19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AV25" s="19" t="n">
-        <v>-69</v>
-      </c>
-      <c r="AW25" s="19" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AX25" s="19" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AY25" s="19" t="n">
-        <v>-38</v>
-      </c>
       <c r="AZ25" s="19" t="n">
-        <v>-23</v>
+        <v>-36</v>
       </c>
       <c r="BA25" s="19" t="n">
-        <v>-36</v>
+        <v>-45</v>
       </c>
       <c r="BB25" s="19" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4794,107 +4794,107 @@
       <c r="T26" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="U26" s="18" t="s">
-        <v>59</v>
+      <c r="U26" s="18" t="n">
+        <v>-27</v>
       </c>
       <c r="V26" s="18" t="n">
+        <v>-15</v>
+      </c>
+      <c r="W26" s="18" t="n">
+        <v>-26</v>
+      </c>
+      <c r="X26" s="18" t="n">
+        <v>-16</v>
+      </c>
+      <c r="Y26" s="18" t="n">
+        <v>-32</v>
+      </c>
+      <c r="Z26" s="18" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AA26" s="18" t="n">
+        <v>-37</v>
+      </c>
+      <c r="AB26" s="18" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AC26" s="18" t="n">
+        <v>-35</v>
+      </c>
+      <c r="AD26" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="18" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AF26" s="18" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AG26" s="18" t="n">
+        <v>-28</v>
+      </c>
+      <c r="AH26" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="18" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AJ26" s="18" t="n">
+        <v>-47</v>
+      </c>
+      <c r="AK26" s="18" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AL26" s="18" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AM26" s="18" t="n">
         <v>-27</v>
       </c>
-      <c r="W26" s="18" t="n">
-        <v>-15</v>
-      </c>
-      <c r="X26" s="18" t="n">
-        <v>-26</v>
-      </c>
-      <c r="Y26" s="18" t="n">
+      <c r="AN26" s="18" t="n">
         <v>-16</v>
       </c>
-      <c r="Z26" s="18" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AA26" s="18" t="n">
+      <c r="AO26" s="18" t="n">
+        <v>-59</v>
+      </c>
+      <c r="AP26" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AQ26" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="18" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AS26" s="18" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AT26" s="18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AU26" s="18" t="n">
+        <v>-69</v>
+      </c>
+      <c r="AV26" s="18" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AW26" s="18" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AX26" s="18" t="n">
+        <v>-38</v>
+      </c>
+      <c r="AY26" s="18" t="n">
         <v>-23</v>
       </c>
-      <c r="AB26" s="18" t="n">
-        <v>-37</v>
-      </c>
-      <c r="AC26" s="18" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AD26" s="18" t="n">
-        <v>-35</v>
-      </c>
-      <c r="AE26" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="18" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AG26" s="18" t="n">
-        <v>-18</v>
-      </c>
-      <c r="AH26" s="18" t="n">
-        <v>-28</v>
-      </c>
-      <c r="AI26" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="18" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AK26" s="18" t="n">
-        <v>-47</v>
-      </c>
-      <c r="AL26" s="18" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AM26" s="18" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AN26" s="18" t="n">
-        <v>-27</v>
-      </c>
-      <c r="AO26" s="18" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AP26" s="18" t="n">
-        <v>-59</v>
-      </c>
-      <c r="AQ26" s="18" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AR26" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="18" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AT26" s="18" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AU26" s="18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AV26" s="18" t="n">
-        <v>-69</v>
-      </c>
-      <c r="AW26" s="18" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AX26" s="18" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AY26" s="18" t="n">
-        <v>-38</v>
-      </c>
       <c r="AZ26" s="18" t="n">
-        <v>-23</v>
+        <v>-36</v>
       </c>
       <c r="BA26" s="18" t="n">
-        <v>-36</v>
+        <v>-45</v>
       </c>
       <c r="BB26" s="18" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,154 +4904,154 @@
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="n">
-        <v>3987</v>
+        <v>4442</v>
       </c>
       <c r="F27" s="16" t="n">
-        <v>4442</v>
+        <v>2127</v>
       </c>
       <c r="G27" s="16" t="n">
-        <v>2127</v>
+        <v>3613</v>
       </c>
       <c r="H27" s="16" t="n">
-        <v>3613</v>
+        <v>3745</v>
       </c>
       <c r="I27" s="16" t="n">
-        <v>3745</v>
+        <v>4013</v>
       </c>
       <c r="J27" s="16" t="n">
-        <v>4013</v>
+        <v>3120</v>
       </c>
       <c r="K27" s="16" t="n">
-        <v>3120</v>
+        <v>3579</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>3579</v>
+        <v>3800</v>
       </c>
       <c r="M27" s="16" t="n">
-        <v>3800</v>
+        <v>3655</v>
       </c>
       <c r="N27" s="16" t="n">
-        <v>3655</v>
+        <v>3205</v>
       </c>
       <c r="O27" s="16" t="n">
-        <v>3205</v>
+        <v>4188</v>
       </c>
       <c r="P27" s="16" t="n">
-        <v>4188</v>
+        <v>4242</v>
       </c>
       <c r="Q27" s="16" t="n">
-        <v>4242</v>
+        <v>2782</v>
       </c>
       <c r="R27" s="16" t="n">
-        <v>2782</v>
+        <v>1511</v>
       </c>
       <c r="S27" s="16" t="n">
-        <v>1511</v>
+        <v>4124</v>
       </c>
       <c r="T27" s="16" t="n">
-        <v>4124</v>
+        <v>3932</v>
       </c>
       <c r="U27" s="16" t="n">
-        <v>3932</v>
+        <v>3878</v>
       </c>
       <c r="V27" s="16" t="n">
-        <v>3878</v>
+        <v>3625</v>
       </c>
       <c r="W27" s="16" t="n">
-        <v>3625</v>
+        <v>4098</v>
       </c>
       <c r="X27" s="16" t="n">
-        <v>4098</v>
+        <v>4139</v>
       </c>
       <c r="Y27" s="16" t="n">
-        <v>4139</v>
+        <v>4562</v>
       </c>
       <c r="Z27" s="16" t="n">
-        <v>4562</v>
+        <v>4698</v>
       </c>
       <c r="AA27" s="16" t="n">
-        <v>4698</v>
+        <v>4945</v>
       </c>
       <c r="AB27" s="16" t="n">
-        <v>4945</v>
+        <v>4854</v>
       </c>
       <c r="AC27" s="16" t="n">
-        <v>4854</v>
+        <v>4732</v>
       </c>
       <c r="AD27" s="16" t="n">
-        <v>4732</v>
+        <v>3117</v>
       </c>
       <c r="AE27" s="16" t="n">
-        <v>3117</v>
+        <v>3770</v>
       </c>
       <c r="AF27" s="16" t="n">
-        <v>3770</v>
+        <v>4527</v>
       </c>
       <c r="AG27" s="16" t="n">
-        <v>4527</v>
+        <v>4417</v>
       </c>
       <c r="AH27" s="16" t="n">
-        <v>4417</v>
+        <v>3876</v>
       </c>
       <c r="AI27" s="16" t="n">
-        <v>3876</v>
+        <v>4643</v>
       </c>
       <c r="AJ27" s="16" t="n">
-        <v>4643</v>
+        <v>4600</v>
       </c>
       <c r="AK27" s="16" t="n">
-        <v>4600</v>
+        <v>4635</v>
       </c>
       <c r="AL27" s="16" t="n">
+        <v>5110</v>
+      </c>
+      <c r="AM27" s="16" t="n">
+        <v>4647</v>
+      </c>
+      <c r="AN27" s="16" t="n">
         <v>4635</v>
       </c>
-      <c r="AM27" s="16" t="n">
-        <v>5110</v>
-      </c>
-      <c r="AN27" s="16" t="n">
-        <v>4647</v>
-      </c>
       <c r="AO27" s="16" t="n">
-        <v>4635</v>
+        <v>4289</v>
       </c>
       <c r="AP27" s="16" t="n">
-        <v>4289</v>
+        <v>3640</v>
       </c>
       <c r="AQ27" s="16" t="n">
-        <v>3640</v>
+        <v>4665</v>
       </c>
       <c r="AR27" s="16" t="n">
-        <v>4665</v>
+        <v>5241</v>
       </c>
       <c r="AS27" s="16" t="n">
-        <v>5241</v>
+        <v>5217</v>
       </c>
       <c r="AT27" s="16" t="n">
-        <v>5217</v>
+        <v>4775</v>
       </c>
       <c r="AU27" s="16" t="n">
-        <v>4775</v>
+        <v>5524</v>
       </c>
       <c r="AV27" s="16" t="n">
-        <v>5524</v>
+        <v>5149</v>
       </c>
       <c r="AW27" s="16" t="n">
-        <v>5149</v>
+        <v>5760</v>
       </c>
       <c r="AX27" s="16" t="n">
-        <v>5760</v>
+        <v>5689</v>
       </c>
       <c r="AY27" s="16" t="n">
-        <v>5689</v>
+        <v>6125</v>
       </c>
       <c r="AZ27" s="16" t="n">
-        <v>6125</v>
+        <v>6338</v>
       </c>
       <c r="BA27" s="16" t="n">
-        <v>6338</v>
+        <v>5274</v>
       </c>
       <c r="BB27" s="16" t="n">
-        <v>5274</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,154 +5497,154 @@
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19" t="n">
-        <v>289863</v>
+        <v>379169</v>
       </c>
       <c r="F34" s="19" t="n">
-        <v>379169</v>
+        <v>172606</v>
       </c>
       <c r="G34" s="19" t="n">
-        <v>172606</v>
+        <v>295323</v>
       </c>
       <c r="H34" s="19" t="n">
-        <v>295323</v>
+        <v>330538</v>
       </c>
       <c r="I34" s="19" t="n">
-        <v>330538</v>
+        <v>388043</v>
       </c>
       <c r="J34" s="19" t="n">
-        <v>388043</v>
+        <v>303159</v>
       </c>
       <c r="K34" s="19" t="n">
-        <v>303159</v>
+        <v>346020</v>
       </c>
       <c r="L34" s="19" t="n">
-        <v>346020</v>
+        <v>351546</v>
       </c>
       <c r="M34" s="19" t="n">
-        <v>351546</v>
+        <v>336718</v>
       </c>
       <c r="N34" s="19" t="n">
-        <v>336718</v>
+        <v>287148</v>
       </c>
       <c r="O34" s="19" t="n">
-        <v>287148</v>
+        <v>431096</v>
       </c>
       <c r="P34" s="19" t="n">
-        <v>431096</v>
+        <v>452015</v>
       </c>
       <c r="Q34" s="19" t="n">
-        <v>452015</v>
+        <v>264920</v>
       </c>
       <c r="R34" s="19" t="n">
-        <v>264920</v>
+        <v>135464</v>
       </c>
       <c r="S34" s="19" t="n">
-        <v>135464</v>
+        <v>396919</v>
       </c>
       <c r="T34" s="19" t="n">
-        <v>396919</v>
+        <v>433109</v>
       </c>
       <c r="U34" s="19" t="n">
-        <v>433109</v>
+        <v>434928</v>
       </c>
       <c r="V34" s="19" t="n">
-        <v>434928</v>
+        <v>442225</v>
       </c>
       <c r="W34" s="19" t="n">
-        <v>442225</v>
+        <v>557912</v>
       </c>
       <c r="X34" s="19" t="n">
-        <v>557912</v>
+        <v>658069</v>
       </c>
       <c r="Y34" s="19" t="n">
-        <v>658069</v>
+        <v>864173</v>
       </c>
       <c r="Z34" s="19" t="n">
-        <v>864173</v>
+        <v>767093</v>
       </c>
       <c r="AA34" s="19" t="n">
-        <v>767093</v>
+        <v>885063</v>
       </c>
       <c r="AB34" s="19" t="n">
-        <v>885063</v>
+        <v>1088682</v>
       </c>
       <c r="AC34" s="19" t="n">
-        <v>1088682</v>
+        <v>1084040</v>
       </c>
       <c r="AD34" s="19" t="n">
-        <v>1084040</v>
+        <v>696108</v>
       </c>
       <c r="AE34" s="19" t="n">
-        <v>696108</v>
+        <v>834751</v>
       </c>
       <c r="AF34" s="19" t="n">
-        <v>834751</v>
+        <v>996867</v>
       </c>
       <c r="AG34" s="19" t="n">
-        <v>996867</v>
+        <v>964919</v>
       </c>
       <c r="AH34" s="19" t="n">
-        <v>964919</v>
+        <v>976425</v>
       </c>
       <c r="AI34" s="19" t="n">
-        <v>976425</v>
+        <v>1177921</v>
       </c>
       <c r="AJ34" s="19" t="n">
-        <v>1177921</v>
+        <v>1207213</v>
       </c>
       <c r="AK34" s="19" t="n">
-        <v>1207213</v>
+        <v>1205432</v>
       </c>
       <c r="AL34" s="19" t="n">
-        <v>1205432</v>
+        <v>1324904</v>
       </c>
       <c r="AM34" s="19" t="n">
-        <v>1324904</v>
+        <v>1242960</v>
       </c>
       <c r="AN34" s="19" t="n">
-        <v>1242960</v>
+        <v>1205281</v>
       </c>
       <c r="AO34" s="19" t="n">
-        <v>1205281</v>
+        <v>1336830</v>
       </c>
       <c r="AP34" s="19" t="n">
-        <v>1336830</v>
+        <v>1138002</v>
       </c>
       <c r="AQ34" s="19" t="n">
-        <v>1138002</v>
+        <v>1489366</v>
       </c>
       <c r="AR34" s="19" t="n">
-        <v>1489366</v>
+        <v>1701038</v>
       </c>
       <c r="AS34" s="19" t="n">
-        <v>1701038</v>
+        <v>1695095</v>
       </c>
       <c r="AT34" s="19" t="n">
-        <v>1695095</v>
+        <v>1894856</v>
       </c>
       <c r="AU34" s="19" t="n">
-        <v>1894856</v>
+        <v>2285656</v>
       </c>
       <c r="AV34" s="19" t="n">
-        <v>2285656</v>
+        <v>2063840</v>
       </c>
       <c r="AW34" s="19" t="n">
-        <v>2063840</v>
+        <v>2285417</v>
       </c>
       <c r="AX34" s="19" t="n">
-        <v>2285417</v>
+        <v>2312060</v>
       </c>
       <c r="AY34" s="19" t="n">
-        <v>2312060</v>
+        <v>2510301</v>
       </c>
       <c r="AZ34" s="19" t="n">
-        <v>2510301</v>
+        <v>2657759</v>
       </c>
       <c r="BA34" s="19" t="n">
-        <v>2657759</v>
+        <v>2346780</v>
       </c>
       <c r="BB34" s="19" t="n">
-        <v>2346780</v>
+        <v>1976057</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,8 +5760,8 @@
       <c r="T36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U36" s="16" t="s">
-        <v>59</v>
+      <c r="U36" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V36" s="20" t="n">
         <v>0</v>
@@ -5976,107 +5976,107 @@
       <c r="T38" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="U38" s="19" t="s">
-        <v>59</v>
+      <c r="U38" s="19" t="n">
+        <v>-2568</v>
       </c>
       <c r="V38" s="19" t="n">
-        <v>-2568</v>
+        <v>-1463</v>
       </c>
       <c r="W38" s="19" t="n">
-        <v>-1463</v>
+        <v>-3581</v>
       </c>
       <c r="X38" s="19" t="n">
-        <v>-3581</v>
+        <v>-1750</v>
       </c>
       <c r="Y38" s="19" t="n">
-        <v>-1750</v>
+        <v>-4625</v>
       </c>
       <c r="Z38" s="19" t="n">
-        <v>-4625</v>
+        <v>-3214</v>
       </c>
       <c r="AA38" s="19" t="n">
-        <v>-3214</v>
+        <v>-4166</v>
       </c>
       <c r="AB38" s="19" t="n">
-        <v>-4166</v>
+        <v>-3440</v>
       </c>
       <c r="AC38" s="19" t="n">
-        <v>-3440</v>
-      </c>
-      <c r="AD38" s="19" t="n">
         <v>-7146</v>
       </c>
-      <c r="AE38" s="19" t="s">
-        <v>59</v>
+      <c r="AD38" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE38" s="19" t="n">
+        <v>-1440</v>
       </c>
       <c r="AF38" s="19" t="n">
-        <v>-1440</v>
+        <v>-3656</v>
       </c>
       <c r="AG38" s="19" t="n">
-        <v>-3656</v>
+        <v>-5163</v>
       </c>
       <c r="AH38" s="19" t="n">
-        <v>-5163</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="19" t="n">
-        <v>0</v>
+        <v>-2943</v>
       </c>
       <c r="AJ38" s="19" t="n">
-        <v>-2943</v>
+        <v>-11229</v>
       </c>
       <c r="AK38" s="19" t="n">
-        <v>-11229</v>
+        <v>-2957</v>
       </c>
       <c r="AL38" s="19" t="n">
-        <v>-2957</v>
+        <v>-8405</v>
       </c>
       <c r="AM38" s="19" t="n">
-        <v>-8405</v>
+        <v>-6996</v>
       </c>
       <c r="AN38" s="19" t="n">
-        <v>-6996</v>
+        <v>-5015</v>
       </c>
       <c r="AO38" s="19" t="n">
-        <v>-5015</v>
+        <v>-12778</v>
       </c>
       <c r="AP38" s="19" t="n">
-        <v>-12778</v>
+        <v>-664</v>
       </c>
       <c r="AQ38" s="19" t="n">
-        <v>-664</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="19" t="n">
-        <v>0</v>
+        <v>-6110</v>
       </c>
       <c r="AS38" s="19" t="n">
-        <v>-6110</v>
+        <v>-3865</v>
       </c>
       <c r="AT38" s="19" t="n">
-        <v>-3865</v>
+        <v>-1784</v>
       </c>
       <c r="AU38" s="19" t="n">
-        <v>-1784</v>
+        <v>-10395</v>
       </c>
       <c r="AV38" s="19" t="n">
-        <v>-10395</v>
+        <v>-3659</v>
       </c>
       <c r="AW38" s="19" t="n">
-        <v>-3659</v>
+        <v>-2429</v>
       </c>
       <c r="AX38" s="19" t="n">
-        <v>-2429</v>
+        <v>-12098</v>
       </c>
       <c r="AY38" s="19" t="n">
-        <v>-12098</v>
+        <v>-6705</v>
       </c>
       <c r="AZ38" s="19" t="n">
-        <v>-6705</v>
+        <v>-12051</v>
       </c>
       <c r="BA38" s="19" t="n">
-        <v>-12051</v>
+        <v>-22978</v>
       </c>
       <c r="BB38" s="19" t="n">
-        <v>-22978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,107 +6135,107 @@
       <c r="T39" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="U39" s="18" t="s">
-        <v>59</v>
+      <c r="U39" s="21" t="n">
+        <v>-2568</v>
       </c>
       <c r="V39" s="21" t="n">
-        <v>-2568</v>
+        <v>-1463</v>
       </c>
       <c r="W39" s="21" t="n">
-        <v>-1463</v>
+        <v>-3581</v>
       </c>
       <c r="X39" s="21" t="n">
-        <v>-3581</v>
+        <v>-1750</v>
       </c>
       <c r="Y39" s="21" t="n">
-        <v>-1750</v>
+        <v>-4625</v>
       </c>
       <c r="Z39" s="21" t="n">
-        <v>-4625</v>
+        <v>-3214</v>
       </c>
       <c r="AA39" s="21" t="n">
-        <v>-3214</v>
+        <v>-4166</v>
       </c>
       <c r="AB39" s="21" t="n">
-        <v>-4166</v>
+        <v>-3440</v>
       </c>
       <c r="AC39" s="21" t="n">
-        <v>-3440</v>
+        <v>-7146</v>
       </c>
       <c r="AD39" s="21" t="n">
-        <v>-7146</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="21" t="n">
-        <v>0</v>
+        <v>-1440</v>
       </c>
       <c r="AF39" s="21" t="n">
-        <v>-1440</v>
+        <v>-3656</v>
       </c>
       <c r="AG39" s="21" t="n">
-        <v>-3656</v>
+        <v>-5163</v>
       </c>
       <c r="AH39" s="21" t="n">
-        <v>-5163</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="21" t="n">
-        <v>0</v>
+        <v>-2943</v>
       </c>
       <c r="AJ39" s="21" t="n">
-        <v>-2943</v>
+        <v>-11229</v>
       </c>
       <c r="AK39" s="21" t="n">
-        <v>-11229</v>
+        <v>-2957</v>
       </c>
       <c r="AL39" s="21" t="n">
-        <v>-2957</v>
+        <v>-8405</v>
       </c>
       <c r="AM39" s="21" t="n">
-        <v>-8405</v>
+        <v>-6996</v>
       </c>
       <c r="AN39" s="21" t="n">
-        <v>-6996</v>
+        <v>-5015</v>
       </c>
       <c r="AO39" s="21" t="n">
-        <v>-5015</v>
+        <v>-12778</v>
       </c>
       <c r="AP39" s="21" t="n">
-        <v>-12778</v>
+        <v>-664</v>
       </c>
       <c r="AQ39" s="21" t="n">
-        <v>-664</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="21" t="n">
-        <v>0</v>
+        <v>-6110</v>
       </c>
       <c r="AS39" s="21" t="n">
-        <v>-6110</v>
+        <v>-3865</v>
       </c>
       <c r="AT39" s="21" t="n">
-        <v>-3865</v>
+        <v>-1784</v>
       </c>
       <c r="AU39" s="21" t="n">
-        <v>-1784</v>
+        <v>-10395</v>
       </c>
       <c r="AV39" s="21" t="n">
-        <v>-10395</v>
+        <v>-3659</v>
       </c>
       <c r="AW39" s="21" t="n">
-        <v>-3659</v>
+        <v>-2429</v>
       </c>
       <c r="AX39" s="21" t="n">
-        <v>-2429</v>
+        <v>-12098</v>
       </c>
       <c r="AY39" s="21" t="n">
-        <v>-12098</v>
+        <v>-6705</v>
       </c>
       <c r="AZ39" s="21" t="n">
-        <v>-6705</v>
+        <v>-12051</v>
       </c>
       <c r="BA39" s="21" t="n">
-        <v>-12051</v>
+        <v>-22978</v>
       </c>
       <c r="BB39" s="21" t="n">
-        <v>-22978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,8 +6351,8 @@
       <c r="T41" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="U41" s="19" t="s">
-        <v>59</v>
+      <c r="U41" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V41" s="19" t="n">
         <v>0</v>
@@ -6461,154 +6461,154 @@
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="n">
-        <v>289863</v>
+        <v>379169</v>
       </c>
       <c r="F42" s="21" t="n">
-        <v>379169</v>
+        <v>172606</v>
       </c>
       <c r="G42" s="21" t="n">
-        <v>172606</v>
+        <v>295323</v>
       </c>
       <c r="H42" s="21" t="n">
-        <v>295323</v>
+        <v>330538</v>
       </c>
       <c r="I42" s="21" t="n">
-        <v>330538</v>
+        <v>388043</v>
       </c>
       <c r="J42" s="21" t="n">
-        <v>388043</v>
+        <v>303159</v>
       </c>
       <c r="K42" s="21" t="n">
-        <v>303159</v>
+        <v>346020</v>
       </c>
       <c r="L42" s="21" t="n">
-        <v>346020</v>
+        <v>351546</v>
       </c>
       <c r="M42" s="21" t="n">
-        <v>351546</v>
+        <v>336718</v>
       </c>
       <c r="N42" s="21" t="n">
-        <v>336718</v>
+        <v>287148</v>
       </c>
       <c r="O42" s="21" t="n">
-        <v>287148</v>
+        <v>431096</v>
       </c>
       <c r="P42" s="21" t="n">
-        <v>431096</v>
+        <v>452015</v>
       </c>
       <c r="Q42" s="21" t="n">
-        <v>452015</v>
+        <v>264920</v>
       </c>
       <c r="R42" s="21" t="n">
-        <v>264920</v>
+        <v>135464</v>
       </c>
       <c r="S42" s="21" t="n">
-        <v>135464</v>
+        <v>396919</v>
       </c>
       <c r="T42" s="21" t="n">
-        <v>396919</v>
+        <v>433109</v>
       </c>
       <c r="U42" s="21" t="n">
-        <v>433109</v>
+        <v>432360</v>
       </c>
       <c r="V42" s="21" t="n">
-        <v>432360</v>
+        <v>440762</v>
       </c>
       <c r="W42" s="21" t="n">
-        <v>440762</v>
+        <v>554331</v>
       </c>
       <c r="X42" s="21" t="n">
-        <v>554331</v>
+        <v>656319</v>
       </c>
       <c r="Y42" s="21" t="n">
-        <v>656319</v>
+        <v>859548</v>
       </c>
       <c r="Z42" s="21" t="n">
-        <v>859548</v>
+        <v>763879</v>
       </c>
       <c r="AA42" s="21" t="n">
-        <v>763879</v>
+        <v>880897</v>
       </c>
       <c r="AB42" s="21" t="n">
-        <v>880897</v>
+        <v>1085242</v>
       </c>
       <c r="AC42" s="21" t="n">
-        <v>1085242</v>
+        <v>1076894</v>
       </c>
       <c r="AD42" s="21" t="n">
-        <v>1076894</v>
+        <v>696108</v>
       </c>
       <c r="AE42" s="21" t="n">
-        <v>696108</v>
+        <v>833311</v>
       </c>
       <c r="AF42" s="21" t="n">
-        <v>833311</v>
+        <v>993211</v>
       </c>
       <c r="AG42" s="21" t="n">
-        <v>993211</v>
+        <v>959756</v>
       </c>
       <c r="AH42" s="21" t="n">
-        <v>959756</v>
+        <v>976425</v>
       </c>
       <c r="AI42" s="21" t="n">
-        <v>976425</v>
+        <v>1174978</v>
       </c>
       <c r="AJ42" s="21" t="n">
-        <v>1174978</v>
+        <v>1195984</v>
       </c>
       <c r="AK42" s="21" t="n">
-        <v>1195984</v>
+        <v>1202475</v>
       </c>
       <c r="AL42" s="21" t="n">
-        <v>1202475</v>
+        <v>1316499</v>
       </c>
       <c r="AM42" s="21" t="n">
-        <v>1316499</v>
+        <v>1235964</v>
       </c>
       <c r="AN42" s="21" t="n">
-        <v>1235964</v>
+        <v>1200266</v>
       </c>
       <c r="AO42" s="21" t="n">
-        <v>1200266</v>
+        <v>1324052</v>
       </c>
       <c r="AP42" s="21" t="n">
-        <v>1324052</v>
+        <v>1137338</v>
       </c>
       <c r="AQ42" s="21" t="n">
-        <v>1137338</v>
+        <v>1489366</v>
       </c>
       <c r="AR42" s="21" t="n">
-        <v>1489366</v>
+        <v>1694928</v>
       </c>
       <c r="AS42" s="21" t="n">
-        <v>1694928</v>
+        <v>1691230</v>
       </c>
       <c r="AT42" s="21" t="n">
-        <v>1691230</v>
+        <v>1893072</v>
       </c>
       <c r="AU42" s="21" t="n">
-        <v>1893072</v>
+        <v>2275261</v>
       </c>
       <c r="AV42" s="21" t="n">
-        <v>2275261</v>
+        <v>2060181</v>
       </c>
       <c r="AW42" s="21" t="n">
-        <v>2060181</v>
+        <v>2282988</v>
       </c>
       <c r="AX42" s="21" t="n">
-        <v>2282988</v>
+        <v>2299962</v>
       </c>
       <c r="AY42" s="21" t="n">
-        <v>2299962</v>
+        <v>2503596</v>
       </c>
       <c r="AZ42" s="21" t="n">
-        <v>2503596</v>
+        <v>2645708</v>
       </c>
       <c r="BA42" s="21" t="n">
-        <v>2645708</v>
+        <v>2323802</v>
       </c>
       <c r="BB42" s="21" t="n">
-        <v>2323802</v>
+        <v>1976057</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7054,154 +7054,154 @@
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19" t="n">
-        <v>72702032</v>
+        <v>85359973</v>
       </c>
       <c r="F49" s="19" t="n">
-        <v>85359973</v>
+        <v>81149976</v>
       </c>
       <c r="G49" s="19" t="n">
-        <v>81149976</v>
+        <v>81738998</v>
       </c>
       <c r="H49" s="19" t="n">
-        <v>81738998</v>
+        <v>88261148</v>
       </c>
       <c r="I49" s="19" t="n">
-        <v>88261148</v>
+        <v>96696486</v>
       </c>
       <c r="J49" s="19" t="n">
-        <v>96696486</v>
+        <v>97166346</v>
       </c>
       <c r="K49" s="19" t="n">
-        <v>97166346</v>
+        <v>96680637</v>
       </c>
       <c r="L49" s="19" t="n">
-        <v>96680637</v>
+        <v>92512105</v>
       </c>
       <c r="M49" s="19" t="n">
-        <v>92512105</v>
+        <v>92125308</v>
       </c>
       <c r="N49" s="19" t="n">
-        <v>92125308</v>
+        <v>89593760</v>
       </c>
       <c r="O49" s="19" t="n">
-        <v>89593760</v>
+        <v>102936008</v>
       </c>
       <c r="P49" s="19" t="n">
-        <v>102936008</v>
+        <v>106557049</v>
       </c>
       <c r="Q49" s="19" t="n">
-        <v>106557049</v>
+        <v>95226456</v>
       </c>
       <c r="R49" s="19" t="n">
-        <v>95226456</v>
+        <v>89651886</v>
       </c>
       <c r="S49" s="19" t="n">
-        <v>89651886</v>
+        <v>96246120</v>
       </c>
       <c r="T49" s="19" t="n">
-        <v>96246120</v>
+        <v>110149797</v>
       </c>
       <c r="U49" s="19" t="n">
-        <v>110149797</v>
+        <v>111377209</v>
       </c>
       <c r="V49" s="19" t="n">
-        <v>111377209</v>
+        <v>121490385</v>
       </c>
       <c r="W49" s="19" t="n">
-        <v>121490385</v>
+        <v>135284190</v>
       </c>
       <c r="X49" s="19" t="n">
-        <v>135284190</v>
+        <v>158380024</v>
       </c>
       <c r="Y49" s="19" t="n">
-        <v>158380024</v>
+        <v>188109055</v>
       </c>
       <c r="Z49" s="19" t="n">
-        <v>188109055</v>
+        <v>162485279</v>
       </c>
       <c r="AA49" s="19" t="n">
-        <v>162485279</v>
+        <v>177652148</v>
       </c>
       <c r="AB49" s="19" t="n">
-        <v>177652148</v>
+        <v>223411040</v>
       </c>
       <c r="AC49" s="19" t="n">
-        <v>223411040</v>
+        <v>227405077</v>
       </c>
       <c r="AD49" s="19" t="n">
-        <v>227405077</v>
+        <v>223326275</v>
       </c>
       <c r="AE49" s="19" t="n">
-        <v>223326275</v>
+        <v>220892035</v>
       </c>
       <c r="AF49" s="19" t="n">
-        <v>220892035</v>
+        <v>219332673</v>
       </c>
       <c r="AG49" s="19" t="n">
-        <v>219332673</v>
+        <v>217079640</v>
       </c>
       <c r="AH49" s="19" t="n">
-        <v>217079640</v>
+        <v>251915635</v>
       </c>
       <c r="AI49" s="19" t="n">
-        <v>251915635</v>
+        <v>252610122</v>
       </c>
       <c r="AJ49" s="19" t="n">
-        <v>252610122</v>
+        <v>259783301</v>
       </c>
       <c r="AK49" s="19" t="n">
-        <v>259783301</v>
+        <v>259176951</v>
       </c>
       <c r="AL49" s="19" t="n">
-        <v>259176951</v>
+        <v>257713285</v>
       </c>
       <c r="AM49" s="19" t="n">
-        <v>257713285</v>
+        <v>265930680</v>
       </c>
       <c r="AN49" s="19" t="n">
-        <v>265930680</v>
+        <v>259144485</v>
       </c>
       <c r="AO49" s="19" t="n">
-        <v>259144485</v>
+        <v>307458602</v>
       </c>
       <c r="AP49" s="19" t="n">
-        <v>307458602</v>
+        <v>312466227</v>
       </c>
       <c r="AQ49" s="19" t="n">
-        <v>312466227</v>
+        <v>319263880</v>
       </c>
       <c r="AR49" s="19" t="n">
-        <v>319263880</v>
+        <v>323391255</v>
       </c>
       <c r="AS49" s="19" t="n">
-        <v>323391255</v>
+        <v>324171926</v>
       </c>
       <c r="AT49" s="19" t="n">
-        <v>324171926</v>
+        <v>396413389</v>
       </c>
       <c r="AU49" s="19" t="n">
-        <v>396413389</v>
+        <v>408663687</v>
       </c>
       <c r="AV49" s="19" t="n">
-        <v>408663687</v>
+        <v>400201668</v>
       </c>
       <c r="AW49" s="19" t="n">
-        <v>400201668</v>
+        <v>396154793</v>
       </c>
       <c r="AX49" s="19" t="n">
-        <v>396154793</v>
+        <v>403712240</v>
       </c>
       <c r="AY49" s="19" t="n">
-        <v>403712240</v>
+        <v>408311809</v>
       </c>
       <c r="AZ49" s="19" t="n">
-        <v>408311809</v>
+        <v>416968779</v>
       </c>
       <c r="BA49" s="19" t="n">
-        <v>416968779</v>
+        <v>441206994</v>
       </c>
       <c r="BB49" s="19" t="n">
-        <v>441206994</v>
+        <v>430607322</v>
       </c>
     </row>
   </sheetData>
